--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="145">
   <si>
     <t>anchor score</t>
   </si>
@@ -118,67 +118,67 @@
     <t>low</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>love</t>
@@ -814,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>56</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>0.9145299145299145</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>0.889763779527559</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>0.8807339449541285</v>
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>0.8571428571428571</v>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>0.8089171974522293</v>
@@ -1146,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>0.8080808080808081</v>
@@ -1196,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>0.7931034482758621</v>
@@ -1246,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>0.7875</v>
@@ -1296,28 +1296,28 @@
         <v>63</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.7631578947368421</v>
+        <v>0.7612732095490716</v>
       </c>
       <c r="L11">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="M11">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1346,28 +1346,28 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.7612732095490716</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>293</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1396,28 +1396,28 @@
         <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1446,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14">
         <v>0.7014925373134329</v>
@@ -1496,7 +1496,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
         <v>0.6890459363957597</v>
@@ -1546,28 +1546,28 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.6840490797546013</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L16">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1599,25 +1599,25 @@
         <v>54</v>
       </c>
       <c r="K17">
-        <v>0.6588235294117647</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L17">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="M17">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1846,7 +1846,7 @@
         <v>248</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.4716049382716049</v>
@@ -2175,13 +2175,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1196581196581197</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="E29">
         <v>0.9399999999999999</v>
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>65</v>
@@ -2225,13 +2225,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05726872246696035</v>
+        <v>0.02171081198436822</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>204</v>
+        <v>854</v>
       </c>
       <c r="E30">
         <v>0.9399999999999999</v>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>214</v>
+        <v>2253</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>66</v>
@@ -2275,25 +2275,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.02171081198436822</v>
+        <v>0.02148760330578512</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>854</v>
+        <v>302</v>
       </c>
       <c r="E31">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F31">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2253</v>
+        <v>592</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>67</v>
@@ -2325,25 +2325,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02148760330578512</v>
+        <v>0.01883353584447145</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>302</v>
+        <v>528</v>
       </c>
       <c r="E32">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F32">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>592</v>
+        <v>1615</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>68</v>
@@ -2375,25 +2375,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01883353584447145</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>528</v>
+        <v>393</v>
       </c>
       <c r="E33">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F33">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1615</v>
+        <v>2808</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>69</v>
@@ -2421,30 +2421,6 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.004608294930875576</v>
-      </c>
-      <c r="C34">
-        <v>13</v>
-      </c>
-      <c r="D34">
-        <v>393</v>
-      </c>
-      <c r="E34">
-        <v>0.97</v>
-      </c>
-      <c r="F34">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>2808</v>
-      </c>
       <c r="J34" s="1" t="s">
         <v>70</v>
       </c>
@@ -2784,7 +2760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K47">
         <v>0.3280363223609535</v>
@@ -3200,7 +3176,7 @@
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K63">
         <v>0.2630029440628067</v>
@@ -3486,7 +3462,7 @@
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K74">
         <v>0.2353219696969697</v>
@@ -4318,7 +4294,7 @@
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K106">
         <v>0.1191969887076537</v>
